--- a/Equipment/Equipment.xlsx
+++ b/Equipment/Equipment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Folder</t>
   </si>
@@ -22,25 +22,22 @@
     <t>PT878</t>
   </si>
   <si>
-    <t>Equipment Type</t>
-  </si>
-  <si>
     <t>Portable Ultrasonic Liquid Flow Meter</t>
   </si>
   <si>
     <t>Aboveground Acoustic Liquid Leak Detector</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Water Leak Detectors</t>
-  </si>
-  <si>
     <t>https://www.subsurfaceleak.com/waterleakdetec.html</t>
   </si>
   <si>
     <t>https://www.gemeasurement.com/flow-meters/ultrasonic-liquid/transport-pt878-portable-ultrasonic-liquid-flow-meter</t>
+  </si>
+  <si>
+    <t>Technology Type</t>
+  </si>
+  <si>
+    <t>Sources</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,21 +408,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
